--- a/attendance-files/Python/Python Attendance - A.xlsx
+++ b/attendance-files/Python/Python Attendance - A.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="139">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -882,9 +882,6 @@
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -896,6 +893,9 @@
     </xf>
     <xf borderId="17" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F7" s="32">
         <f t="shared" ref="F7:F61" si="2">COUNTIF(G7:P7,"P")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G7" s="33" t="s">
         <v>30</v>
@@ -1445,12 +1445,18 @@
       <c r="L7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N7" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="O7" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
@@ -1482,7 +1488,7 @@
       </c>
       <c r="F8" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>30</v>
@@ -1502,12 +1508,18 @@
       <c r="L8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
+      <c r="O8" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
@@ -1539,7 +1551,7 @@
       </c>
       <c r="F9" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>30</v>
@@ -1559,12 +1571,18 @@
       <c r="L9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="33"/>
+      <c r="M9" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
+      <c r="O9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
@@ -1592,11 +1610,11 @@
       </c>
       <c r="E10" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="33" t="s">
         <v>30</v>
@@ -1616,12 +1634,18 @@
       <c r="L10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="33"/>
+      <c r="M10" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="O10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
@@ -1649,11 +1673,11 @@
       </c>
       <c r="E11" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>30</v>
@@ -1673,12 +1697,18 @@
       <c r="L11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="33"/>
+      <c r="M11" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="31"/>
-      <c r="P11" s="34"/>
+      <c r="O11" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
@@ -1710,7 +1740,7 @@
       </c>
       <c r="F12" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>30</v>
@@ -1730,12 +1760,18 @@
       <c r="L12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="33"/>
+      <c r="M12" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="O12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
@@ -1767,7 +1803,7 @@
       </c>
       <c r="F13" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>30</v>
@@ -1787,12 +1823,18 @@
       <c r="L13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="33"/>
+      <c r="M13" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N13" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="34"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
@@ -1820,11 +1862,11 @@
       </c>
       <c r="E14" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>30</v>
@@ -1844,12 +1886,18 @@
       <c r="L14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="33"/>
+      <c r="M14" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N14" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
@@ -1863,7 +1911,7 @@
       <c r="AA14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -1881,7 +1929,7 @@
       </c>
       <c r="F15" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>30</v>
@@ -1901,12 +1949,18 @@
       <c r="L15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="33"/>
+      <c r="M15" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="31"/>
+      <c r="O15" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
@@ -1938,7 +1992,7 @@
       </c>
       <c r="F16" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="33" t="s">
         <v>30</v>
@@ -1958,12 +2012,18 @@
       <c r="L16" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="O16" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
@@ -1995,7 +2055,7 @@
       </c>
       <c r="F17" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>30</v>
@@ -2015,12 +2075,18 @@
       <c r="L17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="33"/>
+      <c r="M17" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N17" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="O17" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -2052,7 +2118,7 @@
       </c>
       <c r="F18" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G18" s="33" t="s">
         <v>30</v>
@@ -2072,12 +2138,18 @@
       <c r="L18" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="33"/>
+      <c r="M18" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N18" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="O18" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -2109,7 +2181,7 @@
       </c>
       <c r="F19" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>30</v>
@@ -2129,12 +2201,18 @@
       <c r="L19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="33"/>
+      <c r="M19" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="O19" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
@@ -2166,7 +2244,7 @@
       </c>
       <c r="F20" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G20" s="33" t="s">
         <v>10</v>
@@ -2186,12 +2264,18 @@
       <c r="L20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="33"/>
+      <c r="M20" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N20" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="O20" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
@@ -2223,7 +2307,7 @@
       </c>
       <c r="F21" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>30</v>
@@ -2243,12 +2327,18 @@
       <c r="L21" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="33"/>
+      <c r="M21" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N21" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
+      <c r="O21" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
@@ -2280,7 +2370,7 @@
       </c>
       <c r="F22" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" s="33" t="s">
         <v>30</v>
@@ -2300,12 +2390,18 @@
       <c r="L22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="34"/>
-      <c r="P22" s="31"/>
+      <c r="O22" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
@@ -2337,7 +2433,7 @@
       </c>
       <c r="F23" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>30</v>
@@ -2357,12 +2453,18 @@
       <c r="L23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="33"/>
+      <c r="M23" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N23" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="O23" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
@@ -2394,7 +2496,7 @@
       </c>
       <c r="F24" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" s="33" t="s">
         <v>30</v>
@@ -2414,12 +2516,18 @@
       <c r="L24" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="33"/>
+      <c r="M24" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N24" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+      <c r="O24" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
@@ -2447,11 +2555,11 @@
       </c>
       <c r="E25" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>30</v>
@@ -2471,12 +2579,18 @@
       <c r="L25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M25" s="33"/>
+      <c r="M25" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N25" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="O25" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
@@ -2508,7 +2622,7 @@
       </c>
       <c r="F26" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="33" t="s">
         <v>30</v>
@@ -2528,12 +2642,18 @@
       <c r="L26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N26" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
+      <c r="O26" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
@@ -2565,7 +2685,7 @@
       </c>
       <c r="F27" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G27" s="33" t="s">
         <v>30</v>
@@ -2585,12 +2705,18 @@
       <c r="L27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="33"/>
+      <c r="M27" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="O27" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
@@ -2622,7 +2748,7 @@
       </c>
       <c r="F28" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>30</v>
@@ -2642,12 +2768,18 @@
       <c r="L28" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="O28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
@@ -2679,7 +2811,7 @@
       </c>
       <c r="F29" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G29" s="33" t="s">
         <v>30</v>
@@ -2699,12 +2831,18 @@
       <c r="L29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M29" s="33"/>
+      <c r="M29" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N29" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="O29" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
@@ -2736,7 +2874,7 @@
       </c>
       <c r="F30" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G30" s="33" t="s">
         <v>30</v>
@@ -2756,12 +2894,18 @@
       <c r="L30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N30" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="O30" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P30" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
@@ -2793,7 +2937,7 @@
       </c>
       <c r="F31" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>10</v>
@@ -2813,12 +2957,18 @@
       <c r="L31" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="33"/>
+      <c r="M31" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N31" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="O31" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
@@ -2846,11 +2996,11 @@
       </c>
       <c r="E32" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G32" s="33" t="s">
         <v>30</v>
@@ -2870,12 +3020,18 @@
       <c r="L32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N32" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="31"/>
-      <c r="P32" s="34"/>
+      <c r="O32" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
@@ -2907,7 +3063,7 @@
       </c>
       <c r="F33" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G33" s="33" t="s">
         <v>30</v>
@@ -2927,12 +3083,18 @@
       <c r="L33" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M33" s="33"/>
+      <c r="M33" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N33" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
+      <c r="O33" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -2960,11 +3122,11 @@
       </c>
       <c r="E34" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>30</v>
@@ -2984,12 +3146,18 @@
       <c r="L34" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N34" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="34"/>
-      <c r="P34" s="31"/>
+      <c r="O34" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -3021,7 +3189,7 @@
       </c>
       <c r="F35" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>30</v>
@@ -3041,12 +3209,18 @@
       <c r="L35" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M35" s="33"/>
+      <c r="M35" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N35" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="O35" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -3074,11 +3248,11 @@
       </c>
       <c r="E36" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>30</v>
@@ -3098,12 +3272,18 @@
       <c r="L36" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M36" s="33"/>
+      <c r="M36" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N36" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
+      <c r="O36" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
@@ -3131,11 +3311,11 @@
       </c>
       <c r="E37" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>30</v>
@@ -3155,12 +3335,18 @@
       <c r="L37" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M37" s="33"/>
+      <c r="M37" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N37" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O37" s="31"/>
-      <c r="P37" s="34"/>
+      <c r="O37" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
@@ -3188,11 +3374,11 @@
       </c>
       <c r="E38" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>30</v>
@@ -3212,12 +3398,18 @@
       <c r="L38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N38" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O38" s="31"/>
-      <c r="P38" s="34"/>
+      <c r="O38" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P38" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -3249,7 +3441,7 @@
       </c>
       <c r="F39" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>30</v>
@@ -3269,12 +3461,18 @@
       <c r="L39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M39" s="33"/>
+      <c r="M39" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
+      <c r="O39" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P39" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
@@ -3302,11 +3500,11 @@
       </c>
       <c r="E40" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40" s="33" t="s">
         <v>30</v>
@@ -3326,12 +3524,18 @@
       <c r="L40" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N40" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
+      <c r="O40" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
@@ -3363,7 +3567,7 @@
       </c>
       <c r="F41" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="33" t="s">
         <v>10</v>
@@ -3383,12 +3587,18 @@
       <c r="L41" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="33"/>
+      <c r="M41" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N41" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
+      <c r="O41" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
@@ -3420,7 +3630,7 @@
       </c>
       <c r="F42" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" s="33" t="s">
         <v>30</v>
@@ -3440,12 +3650,18 @@
       <c r="L42" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M42" s="33"/>
+      <c r="M42" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N42" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
+      <c r="O42" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
@@ -3477,7 +3693,7 @@
       </c>
       <c r="F43" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G43" s="33" t="s">
         <v>30</v>
@@ -3497,12 +3713,18 @@
       <c r="L43" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M43" s="33"/>
+      <c r="M43" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N43" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
+      <c r="O43" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
@@ -3534,7 +3756,7 @@
       </c>
       <c r="F44" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G44" s="33" t="s">
         <v>30</v>
@@ -3554,12 +3776,18 @@
       <c r="L44" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="33"/>
+      <c r="M44" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N44" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
+      <c r="O44" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
@@ -3587,11 +3815,11 @@
       </c>
       <c r="E45" s="31">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G45" s="33" t="s">
         <v>30</v>
@@ -3611,12 +3839,18 @@
       <c r="L45" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="33"/>
+      <c r="M45" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N45" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
+      <c r="O45" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
@@ -3648,7 +3882,7 @@
       </c>
       <c r="F46" s="32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G46" s="33" t="s">
         <v>30</v>
@@ -3668,12 +3902,18 @@
       <c r="L46" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M46" s="33"/>
+      <c r="M46" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N46" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
+      <c r="O46" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -3705,7 +3945,7 @@
       </c>
       <c r="F47" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G47" s="33" t="s">
         <v>30</v>
@@ -3725,12 +3965,18 @@
       <c r="L47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="33"/>
+      <c r="M47" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N47" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+      <c r="O47" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
@@ -3762,7 +4008,7 @@
       </c>
       <c r="F48" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48" s="33" t="s">
         <v>30</v>
@@ -3782,12 +4028,18 @@
       <c r="L48" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M48" s="33"/>
+      <c r="M48" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N48" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
+      <c r="O48" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P48" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
@@ -3819,9 +4071,9 @@
       </c>
       <c r="F49" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="G49" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H49" s="33" t="s">
@@ -3839,12 +4091,18 @@
       <c r="L49" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="33"/>
+      <c r="M49" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N49" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O49" s="34"/>
-      <c r="P49" s="31"/>
+      <c r="O49" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P49" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
@@ -3876,7 +4134,7 @@
       </c>
       <c r="F50" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G50" s="33" t="s">
         <v>30</v>
@@ -3896,12 +4154,18 @@
       <c r="L50" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M50" s="33"/>
+      <c r="M50" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N50" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O50" s="31"/>
-      <c r="P50" s="34"/>
+      <c r="O50" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
@@ -3933,7 +4197,7 @@
       </c>
       <c r="F51" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G51" s="33" t="s">
         <v>30</v>
@@ -3953,12 +4217,18 @@
       <c r="L51" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M51" s="33"/>
+      <c r="M51" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N51" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="O51" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P51" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
@@ -3986,11 +4256,11 @@
       </c>
       <c r="E52" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" s="33" t="s">
         <v>30</v>
@@ -4010,12 +4280,18 @@
       <c r="L52" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="33"/>
+      <c r="M52" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N52" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
+      <c r="O52" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P52" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -4043,11 +4319,11 @@
       </c>
       <c r="E53" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" s="33" t="s">
         <v>30</v>
@@ -4067,12 +4343,18 @@
       <c r="L53" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="33"/>
+      <c r="M53" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N53" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
+      <c r="O53" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="33" t="s">
+        <v>10</v>
+      </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
@@ -4104,7 +4386,7 @@
       </c>
       <c r="F54" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G54" s="33" t="s">
         <v>30</v>
@@ -4124,12 +4406,18 @@
       <c r="L54" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M54" s="33"/>
+      <c r="M54" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N54" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
+      <c r="O54" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P54" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
@@ -4161,7 +4449,7 @@
       </c>
       <c r="F55" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="33" t="s">
         <v>30</v>
@@ -4181,12 +4469,18 @@
       <c r="L55" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="33"/>
+      <c r="M55" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N55" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
+      <c r="O55" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P55" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
@@ -4218,7 +4512,7 @@
       </c>
       <c r="F56" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G56" s="33" t="s">
         <v>30</v>
@@ -4238,12 +4532,18 @@
       <c r="L56" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M56" s="33"/>
+      <c r="M56" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N56" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
+      <c r="O56" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P56" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="S56" s="6"/>
@@ -4275,7 +4575,7 @@
       </c>
       <c r="F57" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G57" s="33" t="s">
         <v>30</v>
@@ -4295,12 +4595,18 @@
       <c r="L57" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M57" s="33"/>
+      <c r="M57" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N57" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
+      <c r="O57" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P57" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
       <c r="S57" s="6"/>
@@ -4328,11 +4634,11 @@
       </c>
       <c r="E58" s="31">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G58" s="33" t="s">
         <v>30</v>
@@ -4352,12 +4658,18 @@
       <c r="L58" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M58" s="33"/>
+      <c r="M58" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N58" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
+      <c r="O58" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P58" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
       <c r="S58" s="6"/>
@@ -4389,7 +4701,7 @@
       </c>
       <c r="F59" s="32">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G59" s="33" t="s">
         <v>30</v>
@@ -4409,12 +4721,18 @@
       <c r="L59" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M59" s="33"/>
+      <c r="M59" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N59" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
+      <c r="O59" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P59" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
       <c r="S59" s="6"/>
@@ -4442,11 +4760,11 @@
       </c>
       <c r="E60" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60" s="33" t="s">
         <v>30</v>
@@ -4466,12 +4784,18 @@
       <c r="L60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N60" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
+      <c r="O60" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P60" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
       <c r="S60" s="6"/>
@@ -4503,7 +4827,7 @@
       </c>
       <c r="F61" s="32">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G61" s="33" t="s">
         <v>30</v>
@@ -4523,12 +4847,18 @@
       <c r="L61" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M61" s="33"/>
+      <c r="M61" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="N61" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
+      <c r="O61" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="P61" s="33" t="s">
+        <v>30</v>
+      </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
       <c r="S61" s="6"/>
@@ -4545,13 +4875,13 @@
       <c r="A62" s="28">
         <v>56.0</v>
       </c>
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
       <c r="F62" s="32"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
       <c r="K62" s="31"/>
@@ -4576,8 +4906,8 @@
       <c r="A63" s="28">
         <v>57.0</v>
       </c>
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
       <c r="F63" s="32"/>
@@ -4587,7 +4917,7 @@
       <c r="J63" s="31"/>
       <c r="K63" s="31"/>
       <c r="L63" s="31"/>
-      <c r="M63" s="34"/>
+      <c r="M63" s="38"/>
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
       <c r="P63" s="31"/>
@@ -4607,15 +4937,15 @@
       <c r="A64" s="28">
         <v>58.0</v>
       </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="38"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
       <c r="F64" s="32"/>
-      <c r="G64" s="34"/>
+      <c r="G64" s="38"/>
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
-      <c r="J64" s="34"/>
+      <c r="J64" s="38"/>
       <c r="K64" s="31"/>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
@@ -4638,15 +4968,15 @@
       <c r="A65" s="28">
         <v>59.0</v>
       </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="32"/>
       <c r="G65" s="31"/>
       <c r="H65" s="31"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="34"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
       <c r="K65" s="31"/>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
@@ -4669,8 +4999,8 @@
       <c r="A66" s="28">
         <v>60.0</v>
       </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
       <c r="F66" s="32"/>
@@ -4679,11 +5009,11 @@
       <c r="I66" s="31"/>
       <c r="J66" s="31"/>
       <c r="K66" s="31"/>
-      <c r="L66" s="34"/>
+      <c r="L66" s="38"/>
       <c r="M66" s="31"/>
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
-      <c r="P66" s="34"/>
+      <c r="P66" s="38"/>
       <c r="Q66" s="6"/>
       <c r="R66" s="6"/>
       <c r="S66" s="6"/>
@@ -4700,8 +5030,8 @@
       <c r="A67" s="28">
         <v>61.0</v>
       </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="38"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
       <c r="F67" s="32"/>
@@ -4731,8 +5061,8 @@
       <c r="A68" s="28">
         <v>62.0</v>
       </c>
-      <c r="B68" s="37"/>
-      <c r="C68" s="38"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
       <c r="F68" s="32"/>
@@ -4762,8 +5092,8 @@
       <c r="A69" s="28">
         <v>63.0</v>
       </c>
-      <c r="B69" s="37"/>
-      <c r="C69" s="38"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
       <c r="F69" s="32"/>
@@ -4773,7 +5103,7 @@
       <c r="J69" s="31"/>
       <c r="K69" s="31"/>
       <c r="L69" s="31"/>
-      <c r="M69" s="34"/>
+      <c r="M69" s="38"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
       <c r="P69" s="31"/>
@@ -4793,14 +5123,14 @@
       <c r="A70" s="28">
         <v>64.0</v>
       </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="38"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
       <c r="F70" s="32"/>
       <c r="G70" s="31"/>
       <c r="H70" s="31"/>
-      <c r="I70" s="34"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="31"/>
       <c r="K70" s="31"/>
       <c r="L70" s="31"/>
@@ -4824,19 +5154,19 @@
       <c r="A71" s="28">
         <v>65.0</v>
       </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="38"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
       <c r="F71" s="32"/>
-      <c r="G71" s="34"/>
+      <c r="G71" s="38"/>
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
       <c r="J71" s="31"/>
       <c r="K71" s="31"/>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
-      <c r="N71" s="34"/>
+      <c r="N71" s="38"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
       <c r="Q71" s="6"/>
@@ -4855,8 +5185,8 @@
       <c r="A72" s="28">
         <v>66.0</v>
       </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
       <c r="F72" s="32"/>
@@ -4866,8 +5196,8 @@
       <c r="J72" s="31"/>
       <c r="K72" s="31"/>
       <c r="L72" s="31"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
       <c r="O72" s="31"/>
       <c r="P72" s="31"/>
       <c r="Q72" s="6"/>
@@ -4886,17 +5216,17 @@
       <c r="A73" s="28">
         <v>67.0</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="38"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
       <c r="F73" s="32"/>
       <c r="G73" s="31"/>
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
-      <c r="J73" s="34"/>
+      <c r="J73" s="38"/>
       <c r="K73" s="31"/>
-      <c r="L73" s="34"/>
+      <c r="L73" s="38"/>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
@@ -4917,8 +5247,8 @@
       <c r="A74" s="28">
         <v>68.0</v>
       </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="38"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
       <c r="F74" s="32"/>
@@ -4948,8 +5278,8 @@
       <c r="A75" s="28">
         <v>69.0</v>
       </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="38"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
       <c r="F75" s="32"/>
@@ -4957,9 +5287,9 @@
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
       <c r="J75" s="31"/>
-      <c r="K75" s="34"/>
+      <c r="K75" s="38"/>
       <c r="L75" s="31"/>
-      <c r="M75" s="34"/>
+      <c r="M75" s="38"/>
       <c r="N75" s="31"/>
       <c r="O75" s="31"/>
       <c r="P75" s="31"/>
@@ -4979,19 +5309,19 @@
       <c r="A76" s="28">
         <v>70.0</v>
       </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="38"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
       <c r="F76" s="32"/>
       <c r="G76" s="31"/>
-      <c r="H76" s="34"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="31"/>
       <c r="J76" s="31"/>
       <c r="K76" s="31"/>
       <c r="L76" s="31"/>
       <c r="M76" s="31"/>
-      <c r="N76" s="34"/>
+      <c r="N76" s="38"/>
       <c r="O76" s="31"/>
       <c r="P76" s="31"/>
       <c r="Q76" s="6"/>
@@ -5010,21 +5340,21 @@
       <c r="A77" s="28">
         <v>71.0</v>
       </c>
-      <c r="B77" s="37"/>
-      <c r="C77" s="38"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
       <c r="F77" s="32"/>
       <c r="G77" s="31"/>
       <c r="H77" s="31"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
       <c r="K77" s="31"/>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
       <c r="N77" s="31"/>
-      <c r="O77" s="34"/>
-      <c r="P77" s="34"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
@@ -5041,19 +5371,19 @@
       <c r="A78" s="28">
         <v>72.0</v>
       </c>
-      <c r="B78" s="37"/>
-      <c r="C78" s="38"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
       <c r="F78" s="32"/>
-      <c r="G78" s="34"/>
+      <c r="G78" s="38"/>
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
       <c r="J78" s="31"/>
       <c r="K78" s="31"/>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
-      <c r="N78" s="34"/>
+      <c r="N78" s="38"/>
       <c r="O78" s="31"/>
       <c r="P78" s="31"/>
       <c r="Q78" s="6"/>
@@ -5072,8 +5402,8 @@
       <c r="A79" s="28">
         <v>73.0</v>
       </c>
-      <c r="B79" s="37"/>
-      <c r="C79" s="38"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="31" t="s">
         <v>10</v>
       </c>
@@ -5086,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="G79" s="31"/>
-      <c r="H79" s="34"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="31"/>
       <c r="J79" s="31"/>
       <c r="K79" s="31"/>
@@ -5094,7 +5424,7 @@
       <c r="M79" s="31"/>
       <c r="N79" s="31"/>
       <c r="O79" s="31"/>
-      <c r="P79" s="34"/>
+      <c r="P79" s="38"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
@@ -5111,8 +5441,8 @@
       <c r="A80" s="28">
         <v>74.0</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="38"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="31" t="s">
         <v>10</v>
       </c>
@@ -5129,8 +5459,8 @@
       <c r="I80" s="31"/>
       <c r="J80" s="31"/>
       <c r="K80" s="31"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
       <c r="N80" s="31"/>
       <c r="O80" s="31"/>
       <c r="P80" s="31"/>
@@ -5150,8 +5480,8 @@
       <c r="A81" s="28">
         <v>75.0</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="31" t="s">
         <v>10</v>
       </c>
@@ -5163,8 +5493,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
       <c r="I81" s="31"/>
       <c r="J81" s="31"/>
       <c r="K81" s="31"/>
@@ -5172,7 +5502,7 @@
       <c r="M81" s="31"/>
       <c r="N81" s="31"/>
       <c r="O81" s="31"/>
-      <c r="P81" s="34"/>
+      <c r="P81" s="38"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
@@ -5189,8 +5519,8 @@
       <c r="A82" s="28">
         <v>76.0</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="38"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="31" t="s">
         <v>10</v>
       </c>
@@ -5205,8 +5535,8 @@
       <c r="G82" s="31"/>
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="34"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
       <c r="N82" s="31"/>
@@ -5228,8 +5558,8 @@
       <c r="A83" s="28">
         <v>77.0</v>
       </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="38"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="31" t="s">
         <v>10</v>
       </c>
@@ -5244,9 +5574,9 @@
       <c r="G83" s="31"/>
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
-      <c r="J83" s="34"/>
+      <c r="J83" s="38"/>
       <c r="K83" s="31"/>
-      <c r="L83" s="34"/>
+      <c r="L83" s="38"/>
       <c r="M83" s="31"/>
       <c r="N83" s="31"/>
       <c r="O83" s="31"/>
@@ -5267,8 +5597,8 @@
       <c r="A84" s="28">
         <v>78.0</v>
       </c>
-      <c r="B84" s="37"/>
-      <c r="C84" s="38"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="31" t="s">
         <v>10</v>
       </c>
@@ -5285,8 +5615,8 @@
       <c r="I84" s="31"/>
       <c r="J84" s="31"/>
       <c r="K84" s="31"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
       <c r="N84" s="31"/>
       <c r="O84" s="31"/>
       <c r="P84" s="31"/>
@@ -5306,8 +5636,8 @@
       <c r="A85" s="28">
         <v>79.0</v>
       </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="38"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="31" t="s">
         <v>10</v>
       </c>
@@ -5321,12 +5651,12 @@
       </c>
       <c r="G85" s="31"/>
       <c r="H85" s="31"/>
-      <c r="I85" s="34"/>
+      <c r="I85" s="38"/>
       <c r="J85" s="31"/>
       <c r="K85" s="31"/>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
-      <c r="N85" s="34"/>
+      <c r="N85" s="38"/>
       <c r="O85" s="31"/>
       <c r="P85" s="31"/>
       <c r="Q85" s="6"/>
@@ -5345,8 +5675,8 @@
       <c r="A86" s="28">
         <v>80.0</v>
       </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="38"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="31" t="s">
         <v>10</v>
       </c>
@@ -5363,9 +5693,9 @@
       <c r="I86" s="31"/>
       <c r="J86" s="31"/>
       <c r="K86" s="31"/>
-      <c r="L86" s="34"/>
+      <c r="L86" s="38"/>
       <c r="M86" s="31"/>
-      <c r="N86" s="34"/>
+      <c r="N86" s="38"/>
       <c r="O86" s="31"/>
       <c r="P86" s="31"/>
       <c r="Q86" s="6"/>
